--- a/Doc/行銷/客戶資料/客戶資料.xlsx
+++ b/Doc/行銷/客戶資料/客戶資料.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18067"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Bitbucket\braille\trunk\doc\客戶資料\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\視覺輔助\text-to-braille\Doc\行銷\客戶資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E14532FD-1EF6-40D1-B0FB-3DFC90D21969}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="16035" windowHeight="12045"/>
+    <workbookView xWindow="31035" yWindow="2595" windowWidth="21600" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>嘉義市崇文國民小學</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -191,13 +192,17 @@
   </si>
   <si>
     <t>序號：0BF2-18ED-0ED9-2426</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0D66-17C6-24F8-0552</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
@@ -674,11 +679,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -850,7 +855,7 @@
         <v>29</v>
       </c>
       <c r="B10" s="7">
-        <v>40016</v>
+        <v>44599</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="1" t="s">
@@ -860,7 +865,9 @@
       <c r="F10" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="G10" s="10"/>
+      <c r="G10" s="10" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="11" spans="1:7" ht="31.5">
       <c r="A11" s="12" t="s">
@@ -1012,10 +1019,10 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E7" r:id="rId1"/>
-    <hyperlink ref="E6" r:id="rId2"/>
-    <hyperlink ref="E8" r:id="rId3"/>
-    <hyperlink ref="E11" r:id="rId4"/>
+    <hyperlink ref="E7" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="E6" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="E8" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="E11" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId5"/>
@@ -1024,7 +1031,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1038,7 +1045,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/Doc/行銷/客戶資料/客戶資料.xlsx
+++ b/Doc/行銷/客戶資料/客戶資料.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\視覺輔助\text-to-braille\Doc\行銷\客戶資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E14532FD-1EF6-40D1-B0FB-3DFC90D21969}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9682B45-4F02-4A74-8738-CEF1CE6854D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31035" yWindow="2595" windowWidth="21600" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>嘉義市崇文國民小學</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -125,77 +125,109 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">陸大康  老師
+    <t>dakunglu@gamil.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">中華科技大學觀光餐旅系      </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>慕光盲人重建中心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宜蘭縣冬山鄉冬山路3段179號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>039-581001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01D7-OEDB-1C2E-034D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高雄市立楠梓特殊學校</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>豐原國小</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>國立彰化師範大學-資源教室</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台南大學</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>彰化縣視障者關懷協會</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0D66-17C6-24F8-0552</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台北市仁愛國小</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>序號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用期限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0BF2-18ED-0ED9-2426</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01DD-07F8-2133-2342</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1DE0-0A0A-18A8-1F35</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0937851857
+03-593-5707 #501</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1AFD-1227-0F0B-05B8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蕭儒琳老師</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rurlirn@hotmail.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02-27095010 #512</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">陸大康 老師
 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>dakunglu@gamil.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0937851857
- 03-593-5707 #501</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">中華科技大學觀光餐旅系      </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>慕光盲人重建中心</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>宜蘭縣冬山鄉冬山路3段179號</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>039-581001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>01D7-OEDB-1C2E-034D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高雄市立楠梓特殊學校</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>序號：1AFD-1227-0F0B-05B8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>豐原國小</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>國立彰化師範大學-資源教室</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>台南大學</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>序號：1DE0-0A0A-18A8-1F35</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>序號：01DD-07F8-2133-2342</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>彰化縣視障者關懷協會</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>序號：0BF2-18ED-0ED9-2426</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0D66-17C6-24F8-0552</t>
+    <t>秋圃基金會(全教總)推廣方案：租賃一年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19CE-141B-2270-1C55</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -206,7 +238,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="14">
     <font>
       <sz val="12"/>
       <name val="新細明體"/>
@@ -220,32 +252,6 @@
       <charset val="136"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="新細明體"/>
-      <family val="1"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <name val="新細明體"/>
-      <family val="1"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="新細明體"/>
-      <family val="1"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="新細明體"/>
-      <family val="1"/>
-      <charset val="136"/>
-    </font>
-    <font>
       <u/>
       <sz val="12"/>
       <color indexed="12"/>
@@ -254,27 +260,82 @@
       <charset val="136"/>
     </font>
     <font>
-      <u/>
-      <sz val="10"/>
-      <color indexed="12"/>
-      <name val="Arial"/>
+      <b/>
+      <sz val="14"/>
+      <name val="Microsoft JhengHei UI"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="Microsoft JhengHei UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Microsoft JhengHei UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Microsoft JhengHei UI"/>
       <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color indexed="12"/>
-      <name val="新細明體"/>
-      <family val="1"/>
-      <charset val="136"/>
+      <name val="Microsoft JhengHei UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Microsoft JhengHei UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color indexed="12"/>
+      <name val="Microsoft JhengHei UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Cascadia Code"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Microsoft JhengHei UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Microsoft JhengHei UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Cascadia Code"/>
+      <family val="3"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -290,63 +351,281 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
     <cellStyle name="超連結" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="11">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Microsoft JhengHei UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Microsoft JhengHei UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Microsoft JhengHei UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color indexed="12"/>
+        <name val="Microsoft JhengHei UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Microsoft JhengHei UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Microsoft JhengHei UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Microsoft JhengHei UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Cascadia Code"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Microsoft JhengHei UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Microsoft JhengHei UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -357,6 +636,24 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4E7ECC33-FC27-4683-AAD2-8356872399A6}" name="表格1" displayName="表格1" ref="A2:I19" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+  <autoFilter ref="A2:I19" xr:uid="{4E7ECC33-FC27-4683-AAD2-8356872399A6}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{2EE4DB7B-134A-468D-9FCC-A96A1184F18F}" name="客戶名稱" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{3857FD08-A47D-4E8A-93F3-8E5FC9F50DB8}" name="註冊日期" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{04622D9D-E59D-4670-A540-7A106107F894}" name="序號" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{3F98AA7D-0C3A-4E81-A100-D66AA5F51015}" name="使用期限" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{506CB835-8209-4C76-9083-57301C7CBFC7}" name="聯絡人" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{E77727B5-9A10-4C68-AB84-562D8499CCD8}" name="電話" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{C6FB5F52-8AFB-4959-86AF-E4F2656624CE}" name="E-mail" dataDxfId="4" dataCellStyle="超連結"/>
+    <tableColumn id="8" xr3:uid="{1AE6F009-7DBE-43E7-AAE3-1AE77A2A3B7F}" name="地址" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{A98B3FFF-1D91-47D6-9392-D5F02E615B52}" name="備註" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -680,353 +977,462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="23.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.375" style="6" customWidth="1"/>
-    <col min="3" max="3" width="12.5" style="6" customWidth="1"/>
-    <col min="4" max="4" width="14.25" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="27.25" style="1" customWidth="1"/>
-    <col min="7" max="7" width="32.5" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="28.875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="12.875" style="6" customWidth="1"/>
+    <col min="3" max="3" width="24.875" style="6" customWidth="1"/>
+    <col min="4" max="4" width="13.5" style="6" customWidth="1"/>
+    <col min="5" max="5" width="12.5" style="6" customWidth="1"/>
+    <col min="6" max="6" width="20.5" style="3" customWidth="1"/>
+    <col min="7" max="7" width="24.375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="31.5" style="3" customWidth="1"/>
+    <col min="9" max="9" width="38" style="3" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="51.75" customHeight="1">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:9" ht="51.75" customHeight="1">
+      <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-    </row>
-    <row r="2" spans="1:7" s="3" customFormat="1">
-      <c r="A2" s="3" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" s="4" customFormat="1" ht="18.600000000000001" customHeight="1">
+      <c r="A2" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="F2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="G2" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="H2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="I2" s="17" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="3" customFormat="1">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:9" s="4" customFormat="1" ht="18.600000000000001" customHeight="1">
+      <c r="A3" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="12">
+        <v>42901</v>
+      </c>
+      <c r="C3" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="7">
-        <v>42901</v>
-      </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1" t="s">
+      <c r="D3" s="12"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+    </row>
+    <row r="4" spans="1:9" s="4" customFormat="1" ht="18.600000000000001" customHeight="1">
+      <c r="A4" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="12">
+        <v>42869</v>
+      </c>
+      <c r="C4" s="13" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" s="3" customFormat="1">
-      <c r="A4" s="1" t="s">
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+    </row>
+    <row r="5" spans="1:9" s="4" customFormat="1" ht="18.600000000000001" customHeight="1">
+      <c r="A5" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="12">
+        <v>42650</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+    </row>
+    <row r="6" spans="1:9" ht="47.25">
+      <c r="A6" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="12">
+        <v>39444</v>
+      </c>
+      <c r="C6" s="13"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="18.600000000000001" customHeight="1">
+      <c r="A7" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="12">
+        <v>39525</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" s="15"/>
+    </row>
+    <row r="8" spans="1:9" ht="18.600000000000001" customHeight="1">
+      <c r="A8" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="12">
+        <v>39623</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="11"/>
+      <c r="G8" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+    </row>
+    <row r="9" spans="1:9" ht="18.600000000000001" customHeight="1">
+      <c r="A9" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="12">
+        <v>39975</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" s="9"/>
+      <c r="H9" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="I9" s="15"/>
+    </row>
+    <row r="10" spans="1:9" ht="17.25">
+      <c r="A10" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="12">
+        <v>44599</v>
+      </c>
+      <c r="C10" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="7">
-        <v>42869</v>
-      </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" s="3" customFormat="1">
-      <c r="A5" s="1" t="s">
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" s="9"/>
+      <c r="H10" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" s="15"/>
+    </row>
+    <row r="11" spans="1:9" ht="31.5">
+      <c r="A11" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="12">
+        <v>40715</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="12"/>
+      <c r="E11" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" s="15"/>
+      <c r="I11" s="11"/>
+    </row>
+    <row r="12" spans="1:9" ht="18.600000000000001" customHeight="1">
+      <c r="A12" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="12">
+        <v>42198</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="11"/>
+    </row>
+    <row r="13" spans="1:9" ht="18.600000000000001" customHeight="1">
+      <c r="A13" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="12">
+        <v>42360</v>
+      </c>
+      <c r="C13" s="13"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="11"/>
+    </row>
+    <row r="14" spans="1:9" ht="18.600000000000001" customHeight="1">
+      <c r="A14" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="7">
-        <v>42650</v>
-      </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="42.75">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="7">
-        <v>39444</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="7">
-        <v>39525</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="10"/>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="7">
-        <v>39623</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" s="8"/>
-      <c r="G8" s="10"/>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="7">
-        <v>39975</v>
-      </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" s="11"/>
-      <c r="F9" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G9" s="10"/>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="7">
-        <v>44599</v>
-      </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" s="11"/>
-      <c r="F10" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="31.5">
-      <c r="A11" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="7">
-        <v>40715</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="F11" s="8"/>
-      <c r="G11" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12" s="7">
-        <v>42198</v>
-      </c>
-      <c r="C12" s="7"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13" s="7">
-        <v>42360</v>
-      </c>
-      <c r="C13" s="7"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="8"/>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="8"/>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="8"/>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="8"/>
-    </row>
-    <row r="17" spans="2:6">
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="8"/>
-    </row>
-    <row r="18" spans="2:6">
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="8"/>
-    </row>
-    <row r="19" spans="2:6">
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="8"/>
-    </row>
-    <row r="20" spans="2:6">
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="8"/>
-    </row>
-    <row r="21" spans="2:6">
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="8"/>
-    </row>
-    <row r="22" spans="2:6">
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="8"/>
-    </row>
-    <row r="23" spans="2:6">
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="8"/>
-    </row>
-    <row r="24" spans="2:6">
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="8"/>
-    </row>
-    <row r="25" spans="2:6">
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="8"/>
-    </row>
-    <row r="26" spans="2:6">
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="8"/>
-    </row>
-    <row r="27" spans="2:6">
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="F27" s="8"/>
-    </row>
-    <row r="28" spans="2:6">
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="F28" s="8"/>
-    </row>
-    <row r="29" spans="2:6">
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
-      <c r="F29" s="8"/>
-    </row>
-    <row r="30" spans="2:6">
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
-    </row>
-    <row r="31" spans="2:6">
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
+      <c r="B14" s="12">
+        <v>44813</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="12">
+        <v>44865</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" s="15"/>
+      <c r="I14" s="11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="18.600000000000001" customHeight="1">
+      <c r="A15" s="11"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="11"/>
+    </row>
+    <row r="16" spans="1:9" ht="18.600000000000001" customHeight="1">
+      <c r="A16" s="11"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="11"/>
+    </row>
+    <row r="17" spans="1:9" ht="18.600000000000001" customHeight="1">
+      <c r="A17" s="11"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="11"/>
+    </row>
+    <row r="18" spans="1:9" ht="18.600000000000001" customHeight="1">
+      <c r="A18" s="11"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="11"/>
+    </row>
+    <row r="19" spans="1:9" ht="18.600000000000001" customHeight="1">
+      <c r="A19" s="11"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="11"/>
+    </row>
+    <row r="20" spans="1:9" ht="16.5">
+      <c r="B20" s="5"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="8"/>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="8"/>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="8"/>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="8"/>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="8"/>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="8"/>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="8"/>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="H27" s="8"/>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="H28" s="8"/>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="H29" s="8"/>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E7" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="E6" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="E8" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="E11" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="G7" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="G6" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="G8" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="G11" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId5"/>
   <headerFooter alignWithMargins="0"/>
+  <tableParts count="1">
+    <tablePart r:id="rId6"/>
+  </tableParts>
 </worksheet>
 </file>
 

--- a/Doc/行銷/客戶資料/客戶資料.xlsx
+++ b/Doc/行銷/客戶資料/客戶資料.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\視覺輔助\text-to-braille\Doc\行銷\客戶資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9682B45-4F02-4A74-8738-CEF1CE6854D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CB95D81-78C2-4DC6-8D27-85ABB60F07B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -420,39 +420,6 @@
     <cellStyle name="超連結" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="11">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Microsoft JhengHei UI"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-      </font>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -625,6 +592,39 @@
         <scheme val="none"/>
       </font>
     </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Microsoft JhengHei UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -639,18 +639,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4E7ECC33-FC27-4683-AAD2-8356872399A6}" name="表格1" displayName="表格1" ref="A2:I19" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4E7ECC33-FC27-4683-AAD2-8356872399A6}" name="表格1" displayName="表格1" ref="A2:I19" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
   <autoFilter ref="A2:I19" xr:uid="{4E7ECC33-FC27-4683-AAD2-8356872399A6}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{2EE4DB7B-134A-468D-9FCC-A96A1184F18F}" name="客戶名稱" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{3857FD08-A47D-4E8A-93F3-8E5FC9F50DB8}" name="註冊日期" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{04622D9D-E59D-4670-A540-7A106107F894}" name="序號" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{3F98AA7D-0C3A-4E81-A100-D66AA5F51015}" name="使用期限" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{506CB835-8209-4C76-9083-57301C7CBFC7}" name="聯絡人" dataDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{E77727B5-9A10-4C68-AB84-562D8499CCD8}" name="電話" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{C6FB5F52-8AFB-4959-86AF-E4F2656624CE}" name="E-mail" dataDxfId="4" dataCellStyle="超連結"/>
-    <tableColumn id="8" xr3:uid="{1AE6F009-7DBE-43E7-AAE3-1AE77A2A3B7F}" name="地址" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{A98B3FFF-1D91-47D6-9392-D5F02E615B52}" name="備註" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{2EE4DB7B-134A-468D-9FCC-A96A1184F18F}" name="客戶名稱" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{3857FD08-A47D-4E8A-93F3-8E5FC9F50DB8}" name="註冊日期" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{04622D9D-E59D-4670-A540-7A106107F894}" name="序號" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{3F98AA7D-0C3A-4E81-A100-D66AA5F51015}" name="使用期限" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{506CB835-8209-4C76-9083-57301C7CBFC7}" name="聯絡人" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{E77727B5-9A10-4C68-AB84-562D8499CCD8}" name="電話" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{C6FB5F52-8AFB-4959-86AF-E4F2656624CE}" name="E-mail" dataDxfId="2" dataCellStyle="超連結"/>
+    <tableColumn id="8" xr3:uid="{1AE6F009-7DBE-43E7-AAE3-1AE77A2A3B7F}" name="地址" dataDxfId="1"/>
+    <tableColumn id="9" xr3:uid="{A98B3FFF-1D91-47D6-9392-D5F02E615B52}" name="備註" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -980,7 +980,7 @@
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1259,7 +1259,7 @@
         <v>50</v>
       </c>
       <c r="D14" s="12">
-        <v>44865</v>
+        <v>45230</v>
       </c>
       <c r="E14" s="12" t="s">
         <v>45</v>

--- a/Doc/行銷/客戶資料/客戶資料.xlsx
+++ b/Doc/行銷/客戶資料/客戶資料.xlsx
@@ -1,28 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\視覺輔助\text-to-braille\Doc\行銷\客戶資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CB95D81-78C2-4DC6-8D27-85ABB60F07B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{469EC9E0-E2BB-4928-BC46-B0139AB2AB97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>嘉義市崇文國民小學</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -228,6 +240,18 @@
   </si>
   <si>
     <t>19CE-141B-2270-1C55</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1FD4-2332-1A6F-054A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宇崝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>忘記何時給的序號，以及是否付費。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -980,7 +1004,7 @@
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1276,15 +1300,21 @@
       </c>
     </row>
     <row r="15" spans="1:9" ht="18.600000000000001" customHeight="1">
-      <c r="A15" s="11"/>
+      <c r="A15" s="11" t="s">
+        <v>52</v>
+      </c>
       <c r="B15" s="12"/>
-      <c r="C15" s="13"/>
+      <c r="C15" s="13" t="s">
+        <v>51</v>
+      </c>
       <c r="D15" s="12"/>
       <c r="E15" s="12"/>
       <c r="F15" s="11"/>
       <c r="G15" s="9"/>
       <c r="H15" s="15"/>
-      <c r="I15" s="11"/>
+      <c r="I15" s="11" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="16" spans="1:9" ht="18.600000000000001" customHeight="1">
       <c r="A16" s="11"/>

--- a/Doc/行銷/客戶資料/客戶資料.xlsx
+++ b/Doc/行銷/客戶資料/客戶資料.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\視覺輔助\text-to-braille\Doc\行銷\客戶資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{469EC9E0-E2BB-4928-BC46-B0139AB2AB97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B40DD415-9059-432F-9840-724996500302}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -247,11 +247,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>宇崝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>忘記何時給的序號，以及是否付費。</t>
+    <t>宇崝（應該是 高雄中山國小?）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>忘記何時給的序號，以及是否付費。
+應該是秋圃買給高雄中山國小用的？</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1004,7 +1005,7 @@
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1299,7 +1300,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="18.600000000000001" customHeight="1">
+    <row r="15" spans="1:9" ht="31.5">
       <c r="A15" s="11" t="s">
         <v>52</v>
       </c>
@@ -1312,7 +1313,7 @@
       <c r="F15" s="11"/>
       <c r="G15" s="9"/>
       <c r="H15" s="15"/>
-      <c r="I15" s="11" t="s">
+      <c r="I15" s="15" t="s">
         <v>53</v>
       </c>
     </row>
